--- a/biology/Zoologie/Diodorus/Diodorus.xlsx
+++ b/biology/Zoologie/Diodorus/Diodorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diodorus est un genre éteint de « reptiles » dinosauriformes ayant vécu à la fin du Trias supérieur (Carnien (?) au Norien) et découvert dans la formation de Timezgadiouine dans le bassin d'Argana au Maroc.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Diodorus et l'espèce Diodorus scytobrachion ont été décrits en 2011 par Christian F. Kammerer (d), Sterling J. Nesbitt (d) et Neil Shubin.
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Diodorus fait référence à Diodore, un roi légendaire du peuple berbère, fils de Sufax, le fondateur de Tanger et aussi en l'honneur de Diodore de Sicile, historien grec du Ier siècle qui a écrit sur l'Afrique du Nord.
 Son nom d'espèce du grec scytobrachion, « cuir armé », mais honore aussi Denys Scytobrachion, un mythographe qui écrivait sur l'histoire mythique de l'Afrique du Nord.
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype et tous les restes mentionnés ont été trouvés dans une unique carrière à la base du membre Irohalene dans la formation de Timezgadiouine dans le bassin d'Argana, à 2,9 km à l'est d'Imziln, au Maroc. Diodorus peut être distingué des autres Silesauridae par la présence de dents inclinées vers l'avant diminuant de taille vers l'extrémité antérieure de l'os dentaire et d'une arête latérale distincte, parallèle au bord alvéolaire.
-Dans une analyse phylogénétique conduite par Christian F. Kammerer (d) et son équipe en 2011, Diodorus scytobrachion s'est révélé être un taxon frère du silésauridé brésilien Sacisaurus[2].
+Dans une analyse phylogénétique conduite par Christian F. Kammerer (d) et son équipe en 2011, Diodorus scytobrachion s'est révélé être un taxon frère du silésauridé brésilien Sacisaurus.
 </t>
         </is>
       </c>
